--- a/data/trans_dic/P15A-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01496723870705048</v>
+        <v>0.01524152591500569</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01608305085391313</v>
+        <v>0.01744439981381952</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.009450564730770859</v>
+        <v>0.009224524616169823</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003643442814765122</v>
+        <v>0.004108700241652255</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01005555129548161</v>
+        <v>0.009651638765278201</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.009494932630623079</v>
+        <v>0.01146197366950233</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.008308270881043507</v>
+        <v>0.008474731199256904</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01931699493436521</v>
+        <v>0.01929520338182688</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01593151239255049</v>
+        <v>0.01518010103787256</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01780369356238662</v>
+        <v>0.01871636120990243</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01261358166206791</v>
+        <v>0.01222930269242074</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01261494930315449</v>
+        <v>0.01323788263317294</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04634104775137355</v>
+        <v>0.04512354950764377</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05833563254031322</v>
+        <v>0.05686635673530915</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04589977447223849</v>
+        <v>0.04326563553609088</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02294047393875975</v>
+        <v>0.02396646925585385</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0533303552491842</v>
+        <v>0.04931909565507736</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05903193899939408</v>
+        <v>0.06014672399770283</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04048314577947128</v>
+        <v>0.04072046265346133</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04368935330281982</v>
+        <v>0.043927509132169</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03977083427194111</v>
+        <v>0.03975844312940103</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.047095987879087</v>
+        <v>0.04797324860144921</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03380057789588214</v>
+        <v>0.03338298888660783</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02739961684581276</v>
+        <v>0.0279565906611183</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.01566716830208371</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02643419813001034</v>
+        <v>0.02643419813001033</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01502633365666955</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02039793735589301</v>
+        <v>0.02010074921530777</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01607700288500076</v>
+        <v>0.01639310828436823</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005311669928051982</v>
+        <v>0.005278955931560072</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01327446846629877</v>
+        <v>0.01361075297092537</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.005110683940175757</v>
+        <v>0.005065644737224702</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.002886127540844117</v>
+        <v>0.002907895486275664</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01635035799513887</v>
+        <v>0.01672325691318189</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.006956054581880702</v>
+        <v>0.006348939133957369</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01568553952453795</v>
+        <v>0.01576171878367452</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01154341449276543</v>
+        <v>0.01168312667475158</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01466081217421245</v>
+        <v>0.01597903474857077</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01240044283939858</v>
+        <v>0.01236835289991711</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06039676543773476</v>
+        <v>0.06064886008647211</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05026608692686397</v>
+        <v>0.04903592162570705</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03203677863943543</v>
+        <v>0.03156324657577212</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04934331803979951</v>
+        <v>0.05072665292981735</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03342623683121031</v>
+        <v>0.03237908924936965</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03414975449160457</v>
+        <v>0.03580890963991308</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05809695725590363</v>
+        <v>0.05893189630070153</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02564372465775509</v>
+        <v>0.02391395134926149</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03988018273158922</v>
+        <v>0.04263773166179802</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03327161772269039</v>
+        <v>0.03294894608074914</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03908473588086225</v>
+        <v>0.04045592967252346</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03324236174988428</v>
+        <v>0.03309533236967331</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.0190018468715784</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.03133667811544773</v>
+        <v>0.03133667811544772</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02954620316374397</v>
@@ -969,7 +969,7 @@
         <v>0.02436367318076244</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.03082214871448284</v>
+        <v>0.03082214871448285</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03525003186005576</v>
+        <v>0.03491745533434702</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01505966929798268</v>
+        <v>0.01525953785095124</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009375111476433303</v>
+        <v>0.009714190013464588</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01749200354646286</v>
+        <v>0.01609620827417205</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01119359311399319</v>
+        <v>0.01144821600232491</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.007552752236548161</v>
+        <v>0.007630982250849206</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01931224245132551</v>
+        <v>0.01459007499675031</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01380369389017517</v>
+        <v>0.01385104533879643</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03139557423402019</v>
+        <v>0.03282919760742143</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01602765121241233</v>
+        <v>0.01618419831986299</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01501363420164691</v>
+        <v>0.01413852694283475</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01907499866709226</v>
+        <v>0.01864206028262004</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07517414523431366</v>
+        <v>0.07491401336931884</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04277493934737363</v>
+        <v>0.04353656659478124</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03471158707395129</v>
+        <v>0.03577293926481509</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05573160912435185</v>
+        <v>0.05085361072025031</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07118084451674447</v>
+        <v>0.06733203955587584</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04746479308565441</v>
+        <v>0.05109799651467928</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08761869788788354</v>
+        <v>0.08144997501896542</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05342426659708906</v>
+        <v>0.05304307945597413</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06597792110722051</v>
+        <v>0.06555090797537121</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03863016953107217</v>
+        <v>0.03825765304393682</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03817616980942102</v>
+        <v>0.04048776824383912</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0477680568856384</v>
+        <v>0.04561504061468161</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02308798188204221</v>
+        <v>0.02247616429409104</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02162426329446439</v>
+        <v>0.02037678978814026</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.014821243569175</v>
+        <v>0.01494145160665081</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01657073668342745</v>
+        <v>0.01637132854475057</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0229612889433011</v>
+        <v>0.02228777557009517</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01309817436409169</v>
+        <v>0.01326308432403283</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.004949434517809901</v>
+        <v>0.005187078798544752</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0169893925738604</v>
+        <v>0.01632627659044194</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02492099927802638</v>
+        <v>0.02513589856136747</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02060079973786706</v>
+        <v>0.020498046989399</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01270293989970089</v>
+        <v>0.01255891104447815</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01846914262419386</v>
+        <v>0.01854332942722402</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04363841710330473</v>
+        <v>0.0425572958684579</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04282258550458976</v>
+        <v>0.0412332075480705</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03337761157618065</v>
+        <v>0.0319790270506317</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03582660903623638</v>
+        <v>0.03532006166408794</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05060484198573007</v>
+        <v>0.05025543021584811</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03505326709368172</v>
+        <v>0.03578691082390831</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02162692469225476</v>
+        <v>0.0221953257163996</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03644521887876212</v>
+        <v>0.0353083285287194</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04150380630992182</v>
+        <v>0.04234381812328063</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03505040299257112</v>
+        <v>0.03589665682814122</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02536960806006852</v>
+        <v>0.02455832382656653</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03192484992274056</v>
+        <v>0.03169169198200312</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.03852030160869109</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.03215100791921323</v>
+        <v>0.03215100791921322</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.03946949448191957</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01863862252706584</v>
+        <v>0.0177942100142633</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01373702856301414</v>
+        <v>0.01546235634848374</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0258110613767899</v>
+        <v>0.02387244875743118</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01728004909281515</v>
+        <v>0.01690675562617352</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02569891817044862</v>
+        <v>0.02485894713646641</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02119318228332767</v>
+        <v>0.02273714476066576</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01804728956737551</v>
+        <v>0.01949268315530174</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02680003640494282</v>
+        <v>0.02725821232952312</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02748678045608747</v>
+        <v>0.02728658455188261</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02215714661291022</v>
+        <v>0.02228943532227828</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02500592500087249</v>
+        <v>0.02555453811907153</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02622414036378964</v>
+        <v>0.02642129330022766</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05871338524457018</v>
+        <v>0.06037673995165431</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04584137381785459</v>
+        <v>0.04599539024335099</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05666291805558862</v>
+        <v>0.05641843079188451</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06207968110257407</v>
+        <v>0.05961575888083508</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05930342313570233</v>
+        <v>0.05682319542462515</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04787462951959687</v>
+        <v>0.04915296815262104</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04553336793836329</v>
+        <v>0.04521625963214485</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05509446509121742</v>
+        <v>0.05132739857728633</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05296529794469549</v>
+        <v>0.05223613239795692</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04294051623704428</v>
+        <v>0.04278853563228607</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04488836507367591</v>
+        <v>0.04553516903576101</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04955285454386901</v>
+        <v>0.05015089781890895</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03046136107060947</v>
+        <v>0.03322224274408883</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01074577910588579</v>
+        <v>0.01089488705715953</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02694189121000505</v>
+        <v>0.0277579252773484</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01537654709931085</v>
+        <v>0.01473737955970509</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0235895266073833</v>
+        <v>0.02301549237466542</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01832331157565068</v>
+        <v>0.01860586572633995</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01642131907949057</v>
+        <v>0.01589895752899749</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02064812365263697</v>
+        <v>0.0208489408140034</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02370083436523314</v>
+        <v>0.02353173995321836</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02336087975513671</v>
+        <v>0.02235022271363335</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01490198374574724</v>
+        <v>0.01438472356931469</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08663135604509972</v>
+        <v>0.08739945754271577</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05011828471294698</v>
+        <v>0.05052984613310186</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.08221399033930415</v>
+        <v>0.08361265216511705</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0576316297213085</v>
+        <v>0.05637233023755762</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03231882312220357</v>
+        <v>0.03183499898779955</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.04598985768460272</v>
+        <v>0.04554957118924018</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04058148865664857</v>
+        <v>0.04121827789325113</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0364407059632385</v>
+        <v>0.03664763609522886</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0383302137591725</v>
+        <v>0.0388265596023793</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.04350359652320258</v>
+        <v>0.04233504835514887</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.0432652482003644</v>
+        <v>0.04304279141931612</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.03218768628316145</v>
+        <v>0.03166808979133904</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03098133021371664</v>
+        <v>0.03063536137715696</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02295474160416909</v>
+        <v>0.02363187127572455</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0210324871328982</v>
+        <v>0.02093415792874368</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01831177062031692</v>
+        <v>0.01824245805141097</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0225327150432754</v>
+        <v>0.02273064235359138</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02229085722977715</v>
+        <v>0.02235700090521457</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.0190662184994771</v>
+        <v>0.01967353160707161</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02321670238751238</v>
+        <v>0.02279876896193628</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02848635709152793</v>
+        <v>0.02823992074256087</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02449360629957546</v>
+        <v>0.02414939349457592</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02182275118064326</v>
+        <v>0.02186778372104672</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02178517231932762</v>
+        <v>0.02211516396460622</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04485346296056276</v>
+        <v>0.04423202900670711</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03514895378540181</v>
+        <v>0.03482916193828571</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03214309609895396</v>
+        <v>0.03203499775458921</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03061502075430455</v>
+        <v>0.02985746105621406</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03384687715835291</v>
+        <v>0.03358518105825119</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03397682873160057</v>
+        <v>0.03352873071448319</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.03023596054357179</v>
+        <v>0.03017447363942009</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0322201231104164</v>
+        <v>0.0323343683171184</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03717956577177472</v>
+        <v>0.03683744949481939</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0325212986745647</v>
+        <v>0.03243750781881451</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02966730740464305</v>
+        <v>0.02963775690319869</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.02921803252787471</v>
+        <v>0.02961888713099651</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7091</v>
+        <v>7221</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7032</v>
+        <v>7627</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4055</v>
+        <v>3958</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2006</v>
+        <v>2262</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3084</v>
+        <v>2960</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2986</v>
+        <v>3604</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2883</v>
+        <v>2941</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9435</v>
+        <v>9424</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12434</v>
+        <v>11847</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>13382</v>
+        <v>14068</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>9790</v>
+        <v>9492</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>13107</v>
+        <v>13755</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21955</v>
+        <v>21378</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>25505</v>
+        <v>24863</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19695</v>
+        <v>18565</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12631</v>
+        <v>13196</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>16355</v>
+        <v>15125</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>18563</v>
+        <v>18913</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>14050</v>
+        <v>14132</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>21338</v>
+        <v>21455</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>31039</v>
+        <v>31030</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>35400</v>
+        <v>36060</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>26234</v>
+        <v>25910</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>28469</v>
+        <v>29048</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7485</v>
+        <v>7376</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6733</v>
+        <v>6865</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2004</v>
+        <v>1991</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6414</v>
+        <v>6577</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1900</v>
+        <v>1884</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>976</v>
+        <v>983</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>6087</v>
+        <v>6226</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2943</v>
+        <v>2687</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>11588</v>
+        <v>11645</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8736</v>
+        <v>8842</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>10988</v>
+        <v>11976</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>11239</v>
+        <v>11210</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22162</v>
+        <v>22254</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21051</v>
+        <v>20536</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12085</v>
+        <v>11907</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>23843</v>
+        <v>24512</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12430</v>
+        <v>12041</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>11543</v>
+        <v>12104</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>21628</v>
+        <v>21939</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>10851</v>
+        <v>10119</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>29463</v>
+        <v>31501</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>25180</v>
+        <v>24936</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>29294</v>
+        <v>30322</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>30129</v>
+        <v>29996</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19119</v>
+        <v>18939</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9479</v>
+        <v>9605</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4893</v>
+        <v>5070</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8249</v>
+        <v>7591</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1878</v>
+        <v>1921</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1965</v>
+        <v>1985</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3208</v>
+        <v>2424</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2588</v>
+        <v>2597</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>22296</v>
+        <v>23314</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>14257</v>
+        <v>14397</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>10330</v>
+        <v>9728</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>12573</v>
+        <v>12287</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>40774</v>
+        <v>40633</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>26923</v>
+        <v>27403</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18116</v>
+        <v>18670</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>26284</v>
+        <v>23983</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11943</v>
+        <v>11297</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12347</v>
+        <v>13292</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14555</v>
+        <v>13531</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>10017</v>
+        <v>9945</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>46856</v>
+        <v>46552</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>34363</v>
+        <v>34032</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>26267</v>
+        <v>27857</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>31484</v>
+        <v>30065</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>28591</v>
+        <v>27833</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>25063</v>
+        <v>23617</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17039</v>
+        <v>17177</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>18755</v>
+        <v>18530</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>16401</v>
+        <v>15920</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10042</v>
+        <v>10168</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4088</v>
+        <v>4284</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>14631</v>
+        <v>14060</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>48661</v>
+        <v>49081</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>39670</v>
+        <v>39472</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>25095</v>
+        <v>24810</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>36810</v>
+        <v>36958</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>54039</v>
+        <v>52700</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>49632</v>
+        <v>47790</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>38372</v>
+        <v>36764</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>40550</v>
+        <v>39977</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>36146</v>
+        <v>35897</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>26874</v>
+        <v>27436</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>17861</v>
+        <v>18331</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>31387</v>
+        <v>30408</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>81041</v>
+        <v>82681</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>67495</v>
+        <v>69125</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>50118</v>
+        <v>48515</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>63628</v>
+        <v>63163</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>6534</v>
+        <v>6238</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7014</v>
+        <v>7895</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>16021</v>
+        <v>14818</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>9814</v>
+        <v>9602</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>14616</v>
+        <v>14139</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>16139</v>
+        <v>17315</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>13323</v>
+        <v>14390</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>22267</v>
+        <v>22647</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>25269</v>
+        <v>25085</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>28187</v>
+        <v>28355</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>33982</v>
+        <v>34727</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>36683</v>
+        <v>36958</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>20582</v>
+        <v>21165</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>23406</v>
+        <v>23485</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>35171</v>
+        <v>35019</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>35259</v>
+        <v>33860</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>33729</v>
+        <v>32318</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>36458</v>
+        <v>37431</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>33615</v>
+        <v>33381</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>45775</v>
+        <v>42645</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>48691</v>
+        <v>48021</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>54625</v>
+        <v>54432</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>61001</v>
+        <v>61880</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>69315</v>
+        <v>70152</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>9084</v>
+        <v>9907</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2868</v>
+        <v>2908</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7736</v>
+        <v>7971</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>19202</v>
+        <v>18403</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>26169</v>
+        <v>25532</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>19826</v>
+        <v>20132</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>13864</v>
+        <v>13423</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>31942</v>
+        <v>32252</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>32618</v>
+        <v>32385</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>31985</v>
+        <v>30601</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>16117</v>
+        <v>15557</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>25834</v>
+        <v>26063</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>13376</v>
+        <v>13486</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>23607</v>
+        <v>24009</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>13672</v>
+        <v>13373</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>40358</v>
+        <v>39754</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>51019</v>
+        <v>50530</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>43910</v>
+        <v>44599</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>30766</v>
+        <v>30941</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>59295</v>
+        <v>60063</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>59871</v>
+        <v>58263</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>59237</v>
+        <v>58933</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>34811</v>
+        <v>34249</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>101315</v>
+        <v>100183</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>78549</v>
+        <v>80866</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>71210</v>
+        <v>70877</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>63038</v>
+        <v>62799</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>76118</v>
+        <v>76787</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>79135</v>
+        <v>79370</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>67334</v>
+        <v>69479</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>84402</v>
+        <v>82882</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>189386</v>
+        <v>187748</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>170770</v>
+        <v>168370</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>150955</v>
+        <v>151266</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>154193</v>
+        <v>156528</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>146679</v>
+        <v>144647</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>120277</v>
+        <v>119182</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>108828</v>
+        <v>108462</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>105391</v>
+        <v>102784</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>114339</v>
+        <v>113455</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>120622</v>
+        <v>119031</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>106781</v>
+        <v>106564</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>117133</v>
+        <v>117548</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>247181</v>
+        <v>244907</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>226740</v>
+        <v>226155</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>205218</v>
+        <v>205014</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>206801</v>
+        <v>209639</v>
       </c>
     </row>
     <row r="32">
